--- a/2-Empirical-Evidence/raw_data/New_Jersey.xlsx
+++ b/2-Empirical-Evidence/raw_data/New_Jersey.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN340010000000003</t>
@@ -790,10 +806,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>6.2</v>
@@ -888,10 +916,20 @@
       <c r="AF5" t="n" s="10">
         <v>17.1</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>7577.0</v>
@@ -986,10 +1024,20 @@
       <c r="AF6" t="n" s="8">
         <v>21147.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>12098.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>6596.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>7289.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>114889.0</v>
@@ -1084,10 +1132,20 @@
       <c r="AF7" t="n" s="8">
         <v>102446.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>109815.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>115832.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>116946.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>122466.0</v>
@@ -1182,10 +1240,20 @@
       <c r="AF8" t="n" s="8">
         <v>123593.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>121913.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>122428.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>124235.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>3.9</v>
@@ -1280,10 +1348,20 @@
       <c r="AF9" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>17236.0</v>
@@ -1378,10 +1456,20 @@
       <c r="AF10" t="n" s="8">
         <v>45343.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>31273.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>17660.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>19865.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>427706.0</v>
@@ -1476,10 +1564,20 @@
       <c r="AF11" t="n" s="8">
         <v>449064.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>461561.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>487201.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>494480.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>444942.0</v>
@@ -1574,10 +1672,20 @@
       <c r="AF12" t="n" s="8">
         <v>494407.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>492834.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>504861.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>514345.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.6</v>
@@ -1672,10 +1780,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>9584.0</v>
@@ -1770,10 +1888,20 @@
       <c r="AF14" t="n" s="8">
         <v>18908.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>13652.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>8623.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>9961.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>197674.0</v>
@@ -1868,10 +1996,20 @@
       <c r="AF15" t="n" s="8">
         <v>219308.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>226911.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>238085.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>242294.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>207258.0</v>
@@ -1966,10 +2104,20 @@
       <c r="AF16" t="n" s="8">
         <v>238216.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>240563.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>246708.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>252255.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>5.9</v>
@@ -2064,10 +2212,20 @@
       <c r="AF17" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>14972.0</v>
@@ -2162,10 +2320,20 @@
       <c r="AF18" t="n" s="8">
         <v>25607.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>18916.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>11356.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>13335.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>238464.0</v>
@@ -2260,10 +2428,20 @@
       <c r="AF19" t="n" s="8">
         <v>237908.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>246076.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>258219.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>262852.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>253436.0</v>
@@ -2358,10 +2536,20 @@
       <c r="AF20" t="n" s="8">
         <v>263515.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>264992.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>269575.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>276187.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>7.7</v>
@@ -2456,10 +2644,20 @@
       <c r="AF21" t="n" s="10">
         <v>13.7</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>9.3</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>3428.0</v>
@@ -2554,10 +2752,20 @@
       <c r="AF22" t="n" s="8">
         <v>6281.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>4378.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>3207.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>3700.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>41048.0</v>
@@ -2652,10 +2860,20 @@
       <c r="AF23" t="n" s="8">
         <v>39457.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>42700.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>44058.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>44835.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>44476.0</v>
@@ -2750,10 +2968,20 @@
       <c r="AF24" t="n" s="8">
         <v>45738.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>47078.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>47265.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>48535.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>7.5</v>
@@ -2848,10 +3076,20 @@
       <c r="AF25" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>4930.0</v>
@@ -2946,10 +3184,20 @@
       <c r="AF26" t="n" s="8">
         <v>7110.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>5544.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>3672.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>4534.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>60695.0</v>
@@ -3044,10 +3292,20 @@
       <c r="AF27" t="n" s="8">
         <v>61223.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>62962.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>65338.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>65428.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>65625.0</v>
@@ -3142,10 +3400,20 @@
       <c r="AF28" t="n" s="8">
         <v>68333.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>68506.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>69010.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>69962.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>6.3</v>
@@ -3240,10 +3508,20 @@
       <c r="AF29" t="n" s="10">
         <v>11.2</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>24818.0</v>
@@ -3338,10 +3616,20 @@
       <c r="AF30" t="n" s="8">
         <v>43559.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>32182.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>18299.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>22019.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>370377.0</v>
@@ -3436,10 +3724,20 @@
       <c r="AF31" t="n" s="8">
         <v>343775.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>353407.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>369991.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>375401.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>395195.0</v>
@@ -3534,10 +3832,20 @@
       <c r="AF32" t="n" s="8">
         <v>387334.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>385589.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>388290.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>397420.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>5.6</v>
@@ -3632,10 +3940,20 @@
       <c r="AF33" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>6731.0</v>
@@ -3730,10 +4048,20 @@
       <c r="AF34" t="n" s="8">
         <v>13969.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>10040.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>6183.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>7067.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>112729.0</v>
@@ -3828,10 +4156,20 @@
       <c r="AF35" t="n" s="8">
         <v>142271.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>147161.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>154432.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>157191.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>119460.0</v>
@@ -3926,10 +4264,20 @@
       <c r="AF36" t="n" s="8">
         <v>156240.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>157201.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>160615.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>164258.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>7.3</v>
@@ -4024,10 +4372,20 @@
       <c r="AF37" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>20939.0</v>
@@ -4122,10 +4480,20 @@
       <c r="AF38" t="n" s="8">
         <v>37893.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>26358.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>14306.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>16882.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>266220.0</v>
@@ -4220,10 +4588,20 @@
       <c r="AF39" t="n" s="8">
         <v>335061.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>344250.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>363504.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>368978.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>287159.0</v>
@@ -4318,10 +4696,20 @@
       <c r="AF40" t="n" s="8">
         <v>372954.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>370608.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>377810.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>385860.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>2.7</v>
@@ -4416,10 +4804,20 @@
       <c r="AF41" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>1595.0</v>
@@ -4514,10 +4912,20 @@
       <c r="AF42" t="n" s="8">
         <v>4549.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>3235.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>2069.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>2420.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>57450.0</v>
@@ -4612,10 +5020,20 @@
       <c r="AF43" t="n" s="8">
         <v>61260.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>63053.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>65989.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>66902.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>59045.0</v>
@@ -4710,10 +5128,20 @@
       <c r="AF44" t="n" s="8">
         <v>65809.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>66288.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>68058.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>69322.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>4.4</v>
@@ -4808,10 +5236,20 @@
       <c r="AF45" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>7577.0</v>
@@ -4906,10 +5344,20 @@
       <c r="AF46" t="n" s="8">
         <v>15239.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>11704.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>7206.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>8519.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>162921.0</v>
@@ -5004,10 +5452,20 @@
       <c r="AF47" t="n" s="8">
         <v>195728.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>199908.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>208265.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>210460.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>170498.0</v>
@@ -5102,10 +5560,20 @@
       <c r="AF48" t="n" s="8">
         <v>210967.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>211612.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>215471.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>218979.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>4.5</v>
@@ -5200,10 +5668,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>16562.0</v>
@@ -5298,10 +5776,20 @@
       <c r="AF50" t="n" s="8">
         <v>37888.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>27501.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>16192.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>19269.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>353724.0</v>
@@ -5396,10 +5884,20 @@
       <c r="AF51" t="n" s="8">
         <v>409340.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>424923.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>446142.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>451218.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>370286.0</v>
@@ -5494,10 +5992,20 @@
       <c r="AF52" t="n" s="8">
         <v>447228.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>452424.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>462334.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>470487.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>4.1</v>
@@ -5592,10 +6100,20 @@
       <c r="AF53" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>11818.0</v>
@@ -5690,10 +6208,20 @@
       <c r="AF54" t="n" s="8">
         <v>28749.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>19988.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>12001.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>13565.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>273694.0</v>
@@ -5788,10 +6316,20 @@
       <c r="AF55" t="n" s="8">
         <v>307993.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>319991.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>335679.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>339416.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>285512.0</v>
@@ -5886,10 +6424,20 @@
       <c r="AF56" t="n" s="8">
         <v>336742.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>339979.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>347680.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>352981.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>3.2</v>
@@ -5984,10 +6532,20 @@
       <c r="AF57" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>7938.0</v>
@@ -6082,10 +6640,20 @@
       <c r="AF58" t="n" s="8">
         <v>19511.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>13924.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>8517.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>10003.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>238937.0</v>
@@ -6180,10 +6748,20 @@
       <c r="AF59" t="n" s="8">
         <v>241666.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>248469.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>260117.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>263900.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>246875.0</v>
@@ -6278,10 +6856,20 @@
       <c r="AF60" t="n" s="8">
         <v>261177.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>262393.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>268634.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>273903.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.1</v>
@@ -6376,10 +6964,20 @@
       <c r="AF61" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>9631.0</v>
@@ -6474,10 +7072,20 @@
       <c r="AF62" t="n" s="8">
         <v>26306.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>18482.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>11549.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>12815.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>180654.0</v>
@@ -6572,10 +7180,20 @@
       <c r="AF63" t="n" s="8">
         <v>263012.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>273243.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>286624.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>289839.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>190285.0</v>
@@ -6670,10 +7288,20 @@
       <c r="AF64" t="n" s="8">
         <v>289318.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>291725.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>298173.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>302654.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>6.4</v>
@@ -6768,10 +7396,20 @@
       <c r="AF65" t="n" s="10">
         <v>12.1</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>8.7</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>15017.0</v>
@@ -6866,10 +7504,20 @@
       <c r="AF66" t="n" s="8">
         <v>30681.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>21756.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>12093.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>14285.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>221041.0</v>
@@ -6964,10 +7612,20 @@
       <c r="AF67" t="n" s="8">
         <v>222385.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>228485.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>241287.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>244903.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>236058.0</v>
@@ -7062,10 +7720,20 @@
       <c r="AF68" t="n" s="8">
         <v>253066.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>250241.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>253380.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>259188.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>5.3</v>
@@ -7160,10 +7828,20 @@
       <c r="AF69" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>1654.0</v>
@@ -7258,10 +7936,20 @@
       <c r="AF70" t="n" s="8">
         <v>2826.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>2348.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>1473.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1727.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>29727.0</v>
@@ -7356,10 +8044,20 @@
       <c r="AF71" t="n" s="8">
         <v>27781.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>28050.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>29159.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>29692.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>31381.0</v>
@@ -7454,10 +8152,20 @@
       <c r="AF72" t="n" s="8">
         <v>30607.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>30398.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>30632.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>31419.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>2.9</v>
@@ -7552,10 +8260,20 @@
       <c r="AF73" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>4061.0</v>
@@ -7650,10 +8368,20 @@
       <c r="AF74" t="n" s="8">
         <v>13022.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>9466.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>5821.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>6918.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>134576.0</v>
@@ -7748,10 +8476,20 @@
       <c r="AF75" t="n" s="8">
         <v>161076.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>165578.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>173376.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>175899.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>138637.0</v>
@@ -7846,10 +8584,20 @@
       <c r="AF76" t="n" s="8">
         <v>174098.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>175044.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>179197.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>182817.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>4.2</v>
@@ -7944,10 +8692,20 @@
       <c r="AF77" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>3013.0</v>
@@ -8042,10 +8800,20 @@
       <c r="AF78" t="n" s="8">
         <v>6884.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>4785.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>2993.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>3367.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>68968.0</v>
@@ -8140,10 +8908,20 @@
       <c r="AF79" t="n" s="8">
         <v>69295.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>71299.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>74621.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>75673.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>71981.0</v>
@@ -8238,10 +9016,20 @@
       <c r="AF80" t="n" s="8">
         <v>76179.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>76084.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>77614.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>79040.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>5.4</v>
@@ -8336,10 +9124,20 @@
       <c r="AF81" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>14560.0</v>
@@ -8434,10 +9232,20 @@
       <c r="AF82" t="n" s="8">
         <v>27231.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>19960.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>11710.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>13981.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>256391.0</v>
@@ -8532,10 +9340,20 @@
       <c r="AF83" t="n" s="8">
         <v>258049.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>265193.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>277712.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>281793.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>270951.0</v>
@@ -8630,10 +9448,20 @@
       <c r="AF84" t="n" s="8">
         <v>285280.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>285153.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>289422.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>295774.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>4.3</v>
@@ -8728,10 +9556,20 @@
       <c r="AF85" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>2099.0</v>
@@ -8826,10 +9664,20 @@
       <c r="AF86" t="n" s="8">
         <v>4704.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>3430.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>2125.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>2428.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>46799.0</v>
@@ -8924,10 +9772,20 @@
       <c r="AF87" t="n" s="8">
         <v>52883.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>54760.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>56933.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>57624.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>48898.0</v>
@@ -9022,6 +9880,16 @@
       <c r="AF88" t="n" s="8">
         <v>57587.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>58190.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>59058.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>60052.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9032,7 +9900,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:45:41 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:54:46 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
